--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35A754-EB99-8748-9CBC-A7666E0E116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B041B-FCC8-3944-9B16-9D2645B2D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,14 +1255,51 @@
       <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="T11" s="6"/>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="W11" s="6"/>
       <c r="X11" s="5"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B041B-FCC8-3944-9B16-9D2645B2D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CB698-8DD6-664C-BA98-01DB6D22DDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>No respondió ninguna</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1145,6 +1149,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1360,6 +1367,9 @@
         <v>11</v>
       </c>
       <c r="B15" s="5"/>
+      <c r="I15">
+        <v>2</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" s="5"/>
@@ -1372,10 +1382,15 @@
       <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" s="5"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CB698-8DD6-664C-BA98-01DB6D22DDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2918E4-ED91-0345-B36C-98DBE18F9C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>No respondió ninguna</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,9 +473,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -495,6 +501,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,8 +841,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,148 +870,148 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="13" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="13" t="s">
+      <c r="V2" s="11"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="17">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="17">
         <v>6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="17">
         <v>7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="17">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
     </row>
     <row r="4" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="2"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -1012,45 +1021,45 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="P4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="13">
         <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="5"/>
-      <c r="AB4" s="6"/>
+      <c r="T4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AB4" s="3"/>
       <c r="AD4">
         <v>33.5</v>
       </c>
@@ -1060,10 +1069,10 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="F5">
@@ -1072,25 +1081,25 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>68</v>
       </c>
       <c r="Q5">
@@ -1102,75 +1111,75 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="5"/>
-      <c r="AB5" s="6"/>
+      <c r="T5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="5"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="5"/>
-      <c r="AB6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="2"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="2"/>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="5"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5"/>
-      <c r="AB7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="2"/>
       <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="16" t="s">
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="Q8">
@@ -1182,37 +1191,37 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="5"/>
-      <c r="AB8" s="6"/>
+      <c r="T8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="2"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="5"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="5"/>
-      <c r="AB9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="2"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="E10">
@@ -1221,25 +1230,25 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="6">
-        <v>2</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="16" t="s">
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>68</v>
       </c>
       <c r="Q10">
@@ -1251,21 +1260,21 @@
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="5"/>
-      <c r="AB10" s="6"/>
+      <c r="T10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="2"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="D11">
@@ -1274,25 +1283,25 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="16" t="s">
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="Q11">
@@ -1304,471 +1313,500 @@
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="5"/>
-      <c r="AB11" s="6"/>
+      <c r="T11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="2"/>
+      <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="5"/>
-      <c r="AB12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="2"/>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="5"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="5"/>
-      <c r="AB13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="2"/>
+      <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="5"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="5"/>
-      <c r="AB15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="2"/>
+      <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="5"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="5"/>
-      <c r="AB16" s="6"/>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="2"/>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="5"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="5"/>
-      <c r="AB17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="2"/>
+      <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="5"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="5"/>
-      <c r="AB18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="2"/>
+      <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="5"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="5"/>
-      <c r="AB19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="5"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="5"/>
-      <c r="AB20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="2"/>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="5"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="5"/>
-      <c r="AB21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="2"/>
+      <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="5"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="5"/>
-      <c r="AB22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="2"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="2"/>
+      <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="5"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="5"/>
-      <c r="AB23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="2"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="2"/>
+      <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="5"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="5"/>
-      <c r="AB24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="2"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="2"/>
+      <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="5"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="5"/>
-      <c r="AB25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="2"/>
+      <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="5"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="5"/>
-      <c r="AB26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="2"/>
+      <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="5"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="5"/>
-      <c r="AB27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="2"/>
+      <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="5"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="5"/>
-      <c r="AB28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="2"/>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="5"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="5"/>
-      <c r="AB29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="2"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="2"/>
+      <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="5"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="5"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="5"/>
-      <c r="AB30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="5"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="5"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="5"/>
-      <c r="AB31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="2"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="2"/>
+      <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="5"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="5"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="5"/>
-      <c r="AB32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="2"/>
+      <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="5"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="5"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="5"/>
-      <c r="AB33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="2"/>
+      <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="5"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="5"/>
-      <c r="AB34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="2"/>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="5"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="5"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="5"/>
-      <c r="AB35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="2"/>
+      <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="5"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="5"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="5"/>
-      <c r="AB36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="2"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="2"/>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="5"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="5"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="5"/>
-      <c r="AB37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="2"/>
+      <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2918E4-ED91-0345-B36C-98DBE18F9C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B3AFBC-E600-324C-B97F-278C8DE59660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -241,16 +241,7 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>No respondió ninguna</t>
-  </si>
-  <si>
-    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -841,8 +832,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,29 +1012,29 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
+      <c r="J4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.5</v>
       </c>
       <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>68</v>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.5</v>
       </c>
       <c r="R4" s="13">
         <v>1</v>
@@ -1051,8 +1042,8 @@
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>68</v>
+      <c r="T4" s="2">
+        <v>0.5</v>
       </c>
       <c r="U4" s="2"/>
       <c r="W4" s="3"/>
@@ -1081,26 +1072,26 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
+      <c r="J5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.5</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>68</v>
+      <c r="M5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1111,8 +1102,8 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>68</v>
+      <c r="T5" s="2">
+        <v>0.5</v>
       </c>
       <c r="U5" s="2"/>
       <c r="W5" s="3"/>
@@ -1159,28 +1150,28 @@
       </c>
       <c r="B8" s="2"/>
       <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K8" t="s">
-        <v>68</v>
+      <c r="J8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.5</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>68</v>
+      <c r="M8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1191,8 +1182,8 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>68</v>
+      <c r="T8" s="2">
+        <v>0.5</v>
       </c>
       <c r="U8" s="2"/>
       <c r="W8" s="3"/>
@@ -1230,26 +1221,26 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
+      <c r="J10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.5</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>68</v>
+      <c r="M10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1260,8 +1251,8 @@
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>68</v>
+      <c r="T10" s="2">
+        <v>0.5</v>
       </c>
       <c r="U10" s="2"/>
       <c r="W10" s="3"/>
@@ -1283,26 +1274,26 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
+      <c r="J11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.5</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>68</v>
+      <c r="M11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1313,8 +1304,8 @@
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>68</v>
+      <c r="T11" s="2">
+        <v>0.5</v>
       </c>
       <c r="U11" s="2"/>
       <c r="W11" s="3"/>
@@ -1400,26 +1391,26 @@
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
+      <c r="J16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.5</v>
       </c>
       <c r="L16" s="3">
         <v>2</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>68</v>
+      <c r="M16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.5</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1430,8 +1421,8 @@
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>68</v>
+      <c r="T16" s="2">
+        <v>0.5</v>
       </c>
       <c r="U16" s="2"/>
       <c r="W16" s="3"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B3AFBC-E600-324C-B97F-278C8DE59660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6882D5D5-F0BA-AE42-B29B-588671EDCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -831,9 +831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1363,14 +1363,52 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="T15" s="3"/>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="W15" s="3"/>
       <c r="X15" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6882D5D5-F0BA-AE42-B29B-588671EDCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F858D0-64E6-BB42-96FF-707002D275BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -831,9 +831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1370,8 +1370,8 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>2</v>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F858D0-64E6-BB42-96FF-707002D275BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C24B-F54E-774A-B2FF-4303EAC7DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>No respondió ninguna</t>
+  </si>
+  <si>
+    <t>Sólo respondió 2 preguntas</t>
   </si>
 </sst>
 </file>
@@ -832,8 +835,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1347,14 +1350,51 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="T14" s="3"/>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="W14" s="3"/>
       <c r="X14" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C24B-F54E-774A-B2FF-4303EAC7DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9215EB6-23F9-6347-818D-6C9BDE7463D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1510,14 +1510,44 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="T17" s="3"/>
+      <c r="M17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.5</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="W17" s="3"/>
       <c r="X17" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9215EB6-23F9-6347-818D-6C9BDE7463D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F598E32-491A-9641-8718-16C32D16C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1522,8 +1522,15 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
       <c r="M17" s="2">
         <v>0.5</v>
       </c>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F598E32-491A-9641-8718-16C32D16C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64EF55-4304-9F44-9610-2866961F4B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1334,14 +1334,51 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="T13" s="3"/>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13">
+        <v>2</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
       <c r="U13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64EF55-4304-9F44-9610-2866961F4B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8E7CA-1613-2940-9393-BEFE5E8A1D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8E7CA-1613-2940-9393-BEFE5E8A1D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F09E5-252D-8643-87A2-4C8D4AB81CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1616,14 +1616,52 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="T19" s="3"/>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.5</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="W19" s="3"/>
       <c r="X19" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F09E5-252D-8643-87A2-4C8D4AB81CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F4D63-8E74-C141-A46E-FBE6076154A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Sólo respondió 2 preguntas</t>
+  </si>
+  <si>
+    <t>Utilizó IA al 100% Lo probé con el detector. Sus respuestas eran muy evidentes.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -498,6 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,9 +849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1600,14 +1615,52 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="T18" s="3"/>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="22">
+        <v>2</v>
+      </c>
+      <c r="H18" s="22">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="W18" s="3"/>
       <c r="X18" s="2"/>
@@ -1630,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13">
         <v>0.5</v>
@@ -1702,14 +1755,46 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="T22" s="3"/>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="20">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>1.5</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="W22" s="3"/>
       <c r="X22" s="2"/>
@@ -1718,14 +1803,51 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="T23" s="3"/>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="W23" s="3"/>
       <c r="X23" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F4D63-8E74-C141-A46E-FBE6076154A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D89DE-53F5-8A43-B263-17C82C945519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -850,8 +850,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1888,7 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D89DE-53F5-8A43-B263-17C82C945519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3AD9F-B611-9641-A878-71B00E6CA0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -850,8 +850,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1891,11 +1891,48 @@
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="2"/>
-      <c r="T26" s="3"/>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="W26" s="3"/>
       <c r="X26" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3AD9F-B611-9641-A878-71B00E6CA0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E54356-0546-154E-9EBA-315A62C49529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -247,7 +247,13 @@
     <t>Sólo respondió 2 preguntas</t>
   </si>
   <si>
-    <t>Utilizó IA al 100% Lo probé con el detector. Sus respuestas eran muy evidentes.</t>
+    <t>69% uso de IA</t>
+  </si>
+  <si>
+    <t>100% IA</t>
+  </si>
+  <si>
+    <t>En todas utilizó 100% IA</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1628,6 +1634,9 @@
       <c r="H18" s="22">
         <v>2</v>
       </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
       <c r="J18" s="2">
         <v>0.5</v>
       </c>
@@ -1758,9 +1767,17 @@
       <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
-        <v>70</v>
+      <c r="B22" s="21">
+        <v>2</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
       </c>
       <c r="J22" s="21">
         <v>0</v>
@@ -1941,14 +1958,51 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="2"/>
-      <c r="T27" s="3"/>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="W27" s="3"/>
       <c r="X27" s="2"/>
@@ -1957,14 +2011,60 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="2"/>
-      <c r="T28" s="3"/>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="22">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="W28" s="3"/>
       <c r="X28" s="2"/>
@@ -1973,14 +2073,55 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="2"/>
-      <c r="T29" s="3"/>
+      <c r="F29" s="22">
+        <v>2</v>
+      </c>
+      <c r="G29" s="22">
+        <v>2</v>
+      </c>
+      <c r="H29" s="22">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U29" s="2"/>
       <c r="W29" s="3"/>
       <c r="X29" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E54356-0546-154E-9EBA-315A62C49529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF02B0-7021-1643-B4CE-F66D6214C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -855,9 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2130,14 +2130,48 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="2"/>
-      <c r="T30" s="3"/>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
       <c r="U30" s="2"/>
       <c r="W30" s="3"/>
       <c r="X30" s="2"/>
@@ -2146,14 +2180,52 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-      <c r="T31" s="3"/>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U31" s="2"/>
       <c r="W31" s="3"/>
       <c r="X31" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF02B0-7021-1643-B4CE-F66D6214C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF52D8A-2FB6-7B4F-AF70-8BBD178E8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -856,8 +856,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2234,14 +2234,51 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="2"/>
-      <c r="T32" s="3"/>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U32" s="2"/>
       <c r="W32" s="3"/>
       <c r="X32" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF52D8A-2FB6-7B4F-AF70-8BBD178E8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B114D2C-4AF0-994F-9A0F-7887AC00B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -855,9 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1217,14 +1217,51 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="T9" s="3"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
@@ -1889,14 +1926,55 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="T25" s="3"/>
+      <c r="E25" s="22">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="22">
+        <v>2</v>
+      </c>
+      <c r="I25" s="22">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="W25" s="3"/>
       <c r="X25" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B114D2C-4AF0-994F-9A0F-7887AC00B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727095C8-A271-2F42-AF79-B9B4C4079F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>En todas utilizó 100% IA</t>
+  </si>
+  <si>
+    <t>65% IA</t>
   </si>
 </sst>
 </file>
@@ -855,9 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1910,14 +1913,58 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="T24" s="3"/>
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="22">
+        <v>2</v>
+      </c>
+      <c r="H24" s="22">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="13">
+        <v>1</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.5</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="W24" s="3"/>
       <c r="X24" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727095C8-A271-2F42-AF79-B9B4C4079F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61815998-5296-4D43-ACFC-EA07B47EBE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -858,9 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,14 +1140,51 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="T6" s="3"/>
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="W6" s="3"/>
       <c r="X6" s="2"/>
@@ -1772,14 +1809,51 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.5</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="W20" s="3"/>
       <c r="X20" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61815998-5296-4D43-ACFC-EA07B47EBE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17492F9B-466D-694F-942F-E0C591D0A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -522,6 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,9 +859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2502,14 +2503,55 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="2"/>
-      <c r="T34" s="3"/>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="22">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="22">
+        <v>2</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="20">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U34" s="2"/>
       <c r="W34" s="3"/>
       <c r="X34" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17492F9B-466D-694F-942F-E0C591D0A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4756A78D-8391-4943-9D48-7F7230EAB39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>65% IA</t>
+  </si>
+  <si>
+    <t>Prueba vacía</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -523,6 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,9 +865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1194,14 +1200,51 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="T7" s="3"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.5</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
@@ -2560,10 +2603,13 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2"/>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="L35" s="3"/>
       <c r="M35" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4756A78D-8391-4943-9D48-7F7230EAB39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9DD82-F762-1D4D-8891-471560F2A711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -865,9 +865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2606,8 +2606,7 @@
       <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="E35" t="s">
+      <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="J35" s="2"/>
@@ -2622,14 +2621,55 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="2"/>
-      <c r="T36" s="3"/>
+      <c r="D36" s="22">
+        <v>2</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="22">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U36" s="2"/>
       <c r="W36" s="3"/>
       <c r="X36" s="2"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9DD82-F762-1D4D-8891-471560F2A711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0FF7BB-4E41-8B4A-B2C9-F46FB2EA1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
@@ -866,8 +866,8 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2678,14 +2678,51 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="2"/>
-      <c r="T37" s="3"/>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U37" s="2"/>
       <c r="W37" s="3"/>
       <c r="X37" s="2"/>
@@ -2694,28 +2731,56 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="6"/>
+      <c r="J38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O38" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U38" s="4"/>
       <c r="V38" s="5"/>
       <c r="W38" s="6"/>

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0FF7BB-4E41-8B4A-B2C9-F46FB2EA1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ED053-1662-1846-BEBC-9A66567B6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>ÁVALOS TAMAYO,VÍCTOR ALEXANDER</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>Prueba vacía</t>
+  </si>
+  <si>
+    <t>No entrega</t>
+  </si>
+  <si>
+    <t>Todo bien</t>
+  </si>
+  <si>
+    <t>Utiliza IA y/o copia</t>
+  </si>
+  <si>
+    <t>Entrega pueba vacía</t>
+  </si>
+  <si>
+    <t>*8 personas utilizaron IA y/o copiaron algunas respuestas</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,11 +504,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -527,6 +545,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29668C47-1BCD-4C09-9743-EA66C4B007B0}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,148 +919,148 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="7" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="10" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="10" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>6</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>7</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>8</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -1046,45 +1070,45 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="12">
         <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="2"/>
-      <c r="AB4" s="3"/>
+      <c r="T4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AB4" s="2"/>
       <c r="AD4">
         <v>33.5</v>
       </c>
@@ -1094,10 +1118,10 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="F5">
@@ -1106,25 +1130,25 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.5</v>
       </c>
       <c r="Q5">
@@ -1136,21 +1160,21 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="T5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="2"/>
-      <c r="AB5" s="3"/>
+      <c r="T5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1159,25 +1183,25 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="J6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.5</v>
       </c>
       <c r="Q6">
@@ -1189,21 +1213,21 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="T6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="2"/>
-      <c r="AB6" s="3"/>
+      <c r="T6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="D7">
@@ -1212,25 +1236,25 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="12">
         <v>0.5</v>
       </c>
       <c r="Q7">
@@ -1242,43 +1266,43 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="2"/>
-      <c r="AB7" s="3"/>
+      <c r="T7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="J8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="1">
         <v>0.5</v>
       </c>
       <c r="Q8">
@@ -1290,21 +1314,21 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="2"/>
-      <c r="AB8" s="3"/>
+      <c r="T8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="1"/>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="E9">
@@ -1313,25 +1337,25 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="J9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.5</v>
       </c>
       <c r="Q9">
@@ -1343,21 +1367,21 @@
       <c r="S9">
         <v>1</v>
       </c>
-      <c r="T9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="2"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="2"/>
-      <c r="AB9" s="3"/>
+      <c r="T9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="E10">
@@ -1366,25 +1390,25 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.5</v>
       </c>
       <c r="Q10">
@@ -1396,21 +1420,21 @@
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="2"/>
-      <c r="AB10" s="3"/>
+      <c r="T10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="1"/>
+      <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="D11">
@@ -1419,25 +1443,25 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="J11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.5</v>
       </c>
       <c r="Q11">
@@ -1449,37 +1473,37 @@
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="T11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="2"/>
-      <c r="AB11" s="3"/>
+      <c r="T11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="2"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="2"/>
-      <c r="AB12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="1"/>
+      <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13">
@@ -1488,51 +1512,51 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>1</v>
-      </c>
-      <c r="R13" s="13">
-        <v>2</v>
-      </c>
-      <c r="S13" s="13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="2"/>
-      <c r="AB13" s="3"/>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="D14">
@@ -1541,25 +1565,25 @@
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="J14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="1">
         <v>0.5</v>
       </c>
       <c r="Q14">
@@ -1571,21 +1595,21 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="2"/>
-      <c r="AB14" s="3"/>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="1"/>
+      <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
       <c r="D15">
         <v>2</v>
       </c>
@@ -1595,25 +1619,25 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="J15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="J15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.5</v>
       </c>
       <c r="Q15">
@@ -1625,21 +1649,21 @@
       <c r="S15">
         <v>1</v>
       </c>
-      <c r="T15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U15" s="2"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="2"/>
-      <c r="AB15" s="3"/>
+      <c r="T15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="E16">
@@ -1648,25 +1672,25 @@
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>0.4</v>
       </c>
-      <c r="K16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O16" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="K16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P16" s="1">
         <v>0.5</v>
       </c>
       <c r="Q16">
@@ -1678,21 +1702,21 @@
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="T16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="2"/>
-      <c r="AB16" s="3"/>
+      <c r="T16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="E17">
@@ -1701,25 +1725,25 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="J17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="1">
         <v>0.5</v>
       </c>
       <c r="Q17">
@@ -1731,52 +1755,52 @@
       <c r="S17">
         <v>0.5</v>
       </c>
-      <c r="T17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="2"/>
-      <c r="AB17" s="3"/>
+      <c r="T17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="22">
-        <v>2</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="G18" s="21">
+        <v>2</v>
+      </c>
+      <c r="H18" s="21">
         <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
+      <c r="J18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
         <v>0</v>
       </c>
       <c r="Q18">
@@ -1788,21 +1812,21 @@
       <c r="S18">
         <v>0.5</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="2"/>
-      <c r="AB18" s="3"/>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="1"/>
+      <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="E19">
         <v>2</v>
       </c>
@@ -1812,25 +1836,25 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="1">
         <v>0.5</v>
       </c>
       <c r="Q19">
@@ -1842,21 +1866,21 @@
       <c r="S19">
         <v>1</v>
       </c>
-      <c r="T19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="2"/>
-      <c r="AB19" s="3"/>
+      <c r="T19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="E20">
@@ -1865,25 +1889,25 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="J20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O20" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="J20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="1">
         <v>0.5</v>
       </c>
       <c r="Q20">
@@ -1895,61 +1919,61 @@
       <c r="S20">
         <v>1</v>
       </c>
-      <c r="T20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="2"/>
-      <c r="AB20" s="3"/>
+      <c r="T20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="2"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="2"/>
-      <c r="AB21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="21">
-        <v>2</v>
-      </c>
-      <c r="C22" s="22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="B22" s="20">
+        <v>2</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="21">
         <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0.5</v>
       </c>
-      <c r="L22" s="20">
-        <v>2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="13">
+      <c r="L22" s="19">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="12">
         <v>0.5</v>
       </c>
       <c r="O22">
@@ -1967,21 +1991,21 @@
       <c r="S22">
         <v>1</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="2"/>
-      <c r="AB22" s="3"/>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="E23">
@@ -1990,25 +2014,25 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>0.5</v>
       </c>
       <c r="K23">
         <v>0.5</v>
       </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P23" s="1">
         <v>0.5</v>
       </c>
       <c r="Q23">
@@ -2020,112 +2044,112 @@
       <c r="S23">
         <v>1</v>
       </c>
-      <c r="T23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="2"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="2"/>
-      <c r="AB23" s="3"/>
+      <c r="T23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="E24" s="22">
+      <c r="B24" s="1"/>
+      <c r="E24" s="21">
         <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="22">
-        <v>2</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="G24" s="21">
+        <v>2</v>
+      </c>
+      <c r="H24" s="21">
         <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="13">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <v>1</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R24" s="13">
-        <v>1</v>
-      </c>
-      <c r="S24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U24" s="2"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="2"/>
-      <c r="AB24" s="3"/>
+      <c r="J24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>1</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="E25" s="22">
+      <c r="B25" s="1"/>
+      <c r="E25" s="21">
         <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="22">
-        <v>2</v>
-      </c>
-      <c r="I25" s="22">
-        <v>2</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="H25" s="21">
+        <v>2</v>
+      </c>
+      <c r="I25" s="21">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
         <v>0.5</v>
       </c>
       <c r="K25">
         <v>0.5</v>
       </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P25" s="2">
+      <c r="L25" s="2">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P25" s="1">
         <v>0.5</v>
       </c>
       <c r="Q25">
@@ -2137,21 +2161,21 @@
       <c r="S25">
         <v>1</v>
       </c>
-      <c r="T25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U25" s="2"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="2"/>
-      <c r="AB25" s="3"/>
+      <c r="T25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="G26">
@@ -2160,25 +2184,25 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0.5</v>
       </c>
       <c r="K26">
         <v>0.5</v>
       </c>
-      <c r="L26" s="3">
-        <v>2</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O26" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="1">
         <v>0.5</v>
       </c>
       <c r="Q26">
@@ -2190,21 +2214,21 @@
       <c r="S26">
         <v>1</v>
       </c>
-      <c r="T26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U26" s="2"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="2"/>
-      <c r="AB26" s="3"/>
+      <c r="T26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="1"/>
+      <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="F27">
@@ -2213,25 +2237,25 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="J27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O27" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P27" s="2">
+      <c r="J27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.5</v>
       </c>
       <c r="Q27">
@@ -2243,57 +2267,57 @@
       <c r="S27">
         <v>1</v>
       </c>
-      <c r="T27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U27" s="2"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="2"/>
-      <c r="AB27" s="3"/>
+      <c r="T27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1"/>
+      <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>0.5</v>
       </c>
       <c r="K28">
         <v>0.5</v>
       </c>
-      <c r="L28" s="3">
-        <v>2</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O28" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="1">
         <v>0.5</v>
       </c>
       <c r="Q28">
@@ -2305,52 +2329,52 @@
       <c r="S28">
         <v>1</v>
       </c>
-      <c r="T28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U28" s="2"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="2"/>
-      <c r="AB28" s="3"/>
+      <c r="T28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="F29" s="22">
-        <v>2</v>
-      </c>
-      <c r="G29" s="22">
-        <v>2</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="B29" s="1"/>
+      <c r="F29" s="21">
+        <v>2</v>
+      </c>
+      <c r="G29" s="21">
+        <v>2</v>
+      </c>
+      <c r="H29" s="21">
         <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O29" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P29" s="2">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="1">
         <v>0.5</v>
       </c>
       <c r="Q29">
@@ -2362,45 +2386,45 @@
       <c r="S29">
         <v>1</v>
       </c>
-      <c r="T29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U29" s="2"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="2"/>
-      <c r="AB29" s="3"/>
+      <c r="T29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="J30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O30" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="J30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P30" s="1">
         <v>0.5</v>
       </c>
       <c r="Q30">
@@ -2412,21 +2436,21 @@
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="2"/>
-      <c r="AB30" s="3"/>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="1"/>
+      <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="E31">
         <v>2</v>
       </c>
@@ -2436,25 +2460,25 @@
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="J31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O31" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P31" s="2">
+      <c r="J31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.5</v>
       </c>
       <c r="Q31">
@@ -2466,21 +2490,21 @@
       <c r="S31">
         <v>1</v>
       </c>
-      <c r="T31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U31" s="2"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="2"/>
-      <c r="AB31" s="3"/>
+      <c r="T31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32">
@@ -2489,25 +2513,25 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="J32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O32" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P32" s="2">
+      <c r="J32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="1">
         <v>0.5</v>
       </c>
       <c r="Q32">
@@ -2519,68 +2543,68 @@
       <c r="S32">
         <v>1</v>
       </c>
-      <c r="T32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U32" s="2"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="2"/>
-      <c r="AB32" s="3"/>
+      <c r="T32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="2"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="2"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="2"/>
-      <c r="AB33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="22">
-        <v>2</v>
-      </c>
-      <c r="J34" s="23">
-        <v>0</v>
-      </c>
-      <c r="K34" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="20">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O34" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P34" s="2">
+      <c r="I34" s="21">
+        <v>2</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="19">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="1">
         <v>0.5</v>
       </c>
       <c r="Q34">
@@ -2592,70 +2616,70 @@
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U34" s="2"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="2"/>
-      <c r="AB34" s="3"/>
+      <c r="T34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="1"/>
+      <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="2"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="2"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="2"/>
-      <c r="AB35" s="3"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="22">
-        <v>2</v>
-      </c>
-      <c r="G36" s="22">
+      <c r="B36" s="1"/>
+      <c r="D36" s="21">
+        <v>2</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2</v>
+      </c>
+      <c r="G36" s="21">
         <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="3">
-        <v>2</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O36" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P36" s="2">
+      <c r="J36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P36" s="1">
         <v>0.5</v>
       </c>
       <c r="Q36">
@@ -2667,21 +2691,21 @@
       <c r="S36">
         <v>1</v>
       </c>
-      <c r="T36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U36" s="2"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="2"/>
-      <c r="AB36" s="3"/>
+      <c r="T36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="1"/>
+      <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="E37">
@@ -2690,25 +2714,25 @@
       <c r="H37">
         <v>2</v>
       </c>
-      <c r="J37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K37" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="3">
-        <v>2</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O37" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P37" s="2">
+      <c r="J37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P37" s="1">
         <v>0.5</v>
       </c>
       <c r="Q37">
@@ -2720,53 +2744,53 @@
       <c r="S37">
         <v>1</v>
       </c>
-      <c r="T37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U37" s="2"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="2"/>
-      <c r="AB37" s="3"/>
+      <c r="T37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5">
-        <v>2</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K38" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="3">
-        <v>2</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O38" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O38" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="P38" s="1">
         <v>0.5</v>
       </c>
       <c r="Q38">
@@ -2778,17 +2802,44 @@
       <c r="S38">
         <v>1</v>
       </c>
-      <c r="T38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="6"/>
+      <c r="T38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U38" s="3"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="24"/>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B45" s="21"/>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B46" s="25"/>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B47" s="26"/>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/clases/clase_12/notas_prueba2.xlsx
+++ b/clases/clase_12/notas_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/Ayudantías Cuanti R/mc2/clases/clase_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ED053-1662-1846-BEBC-9A66567B6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB08299-0F2D-4042-8C18-B410AAD87905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{4B4FE8C0-9535-43E1-81A6-0C70ED611A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -512,22 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -543,7 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -552,6 +535,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,8 +888,8 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,145 +917,145 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="9" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="9" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="10">
         <v>6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="10">
         <v>7</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
     </row>
     <row r="4" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -1085,7 +1083,7 @@
       <c r="N4" s="1">
         <v>0.5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4">
         <v>1.5</v>
       </c>
       <c r="P4" s="1">
@@ -1094,7 +1092,7 @@
       <c r="Q4" s="1">
         <v>0.5</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
@@ -1118,7 +1116,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -1145,7 +1143,7 @@
       <c r="N5" s="1">
         <v>0.5</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5">
         <v>1.5</v>
       </c>
       <c r="P5" s="1">
@@ -1171,7 +1169,7 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
@@ -1198,7 +1196,7 @@
       <c r="N6" s="1">
         <v>0.5</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6">
         <v>1.5</v>
       </c>
       <c r="P6" s="1">
@@ -1224,7 +1222,7 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -1239,7 +1237,7 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7">
         <v>0.5</v>
       </c>
       <c r="L7" s="2">
@@ -1251,10 +1249,10 @@
       <c r="N7" s="1">
         <v>0.5</v>
       </c>
-      <c r="O7" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="12">
+      <c r="O7">
+        <v>1.5</v>
+      </c>
+      <c r="P7">
         <v>0.5</v>
       </c>
       <c r="Q7">
@@ -1277,7 +1275,7 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
@@ -1299,7 +1297,7 @@
       <c r="N8" s="1">
         <v>0.5</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8">
         <v>1.5</v>
       </c>
       <c r="P8" s="1">
@@ -1325,7 +1323,7 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -1340,7 +1338,7 @@
       <c r="J9" s="1">
         <v>0.5</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9">
         <v>0.5</v>
       </c>
       <c r="L9" s="2">
@@ -1352,7 +1350,7 @@
       <c r="N9" s="1">
         <v>0.5</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9">
         <v>1.5</v>
       </c>
       <c r="P9" s="1">
@@ -1378,7 +1376,7 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -1405,7 +1403,7 @@
       <c r="N10" s="1">
         <v>0.5</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10">
         <v>1.5</v>
       </c>
       <c r="P10" s="1">
@@ -1431,7 +1429,7 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -1458,7 +1456,7 @@
       <c r="N11" s="1">
         <v>0.5</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11">
         <v>1.5</v>
       </c>
       <c r="P11" s="1">
@@ -1484,7 +1482,7 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
@@ -1500,7 +1498,7 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1">
@@ -1524,22 +1522,22 @@
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="N13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>1</v>
-      </c>
-      <c r="R13" s="12">
-        <v>2</v>
-      </c>
-      <c r="S13" s="12">
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <v>1.5</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
       <c r="T13" s="2">
@@ -1553,7 +1551,7 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1">
@@ -1568,7 +1566,7 @@
       <c r="J14" s="1">
         <v>0.5</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14">
         <v>0.5</v>
       </c>
       <c r="L14" s="2">
@@ -1580,7 +1578,7 @@
       <c r="N14" s="1">
         <v>0.5</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14">
         <v>1.5</v>
       </c>
       <c r="P14" s="1">
@@ -1606,7 +1604,7 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
@@ -1622,7 +1620,7 @@
       <c r="J15" s="1">
         <v>0.5</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15">
         <v>0.5</v>
       </c>
       <c r="L15" s="2">
@@ -1634,7 +1632,7 @@
       <c r="N15" s="1">
         <v>0.5</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15">
         <v>1.5</v>
       </c>
       <c r="P15" s="1">
@@ -1660,7 +1658,7 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
@@ -1687,7 +1685,7 @@
       <c r="N16" s="1">
         <v>0.5</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16">
         <v>1.5</v>
       </c>
       <c r="P16" s="1">
@@ -1713,7 +1711,7 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1">
@@ -1728,7 +1726,7 @@
       <c r="J17" s="1">
         <v>0.5</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17">
         <v>0.5</v>
       </c>
       <c r="L17" s="2">
@@ -1740,7 +1738,7 @@
       <c r="N17" s="1">
         <v>0.5</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17">
         <v>1.5</v>
       </c>
       <c r="P17" s="1">
@@ -1766,17 +1764,17 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
-        <v>2</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15">
         <v>2</v>
       </c>
       <c r="I18" t="s">
@@ -1785,7 +1783,7 @@
       <c r="J18" s="1">
         <v>0.5</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18">
         <v>0.5</v>
       </c>
       <c r="L18" s="2">
@@ -1794,13 +1792,13 @@
       <c r="M18" s="1">
         <v>0.5</v>
       </c>
-      <c r="N18" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0</v>
-      </c>
-      <c r="P18" s="12">
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
@@ -1823,7 +1821,7 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1"/>
@@ -1839,7 +1837,7 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19">
         <v>0.5</v>
       </c>
       <c r="L19" s="2">
@@ -1851,7 +1849,7 @@
       <c r="N19" s="1">
         <v>0.5</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19">
         <v>1.5</v>
       </c>
       <c r="P19" s="1">
@@ -1877,7 +1875,7 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1">
@@ -1892,7 +1890,7 @@
       <c r="J20" s="1">
         <v>0.5</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20">
         <v>0.5</v>
       </c>
       <c r="L20" s="2">
@@ -1904,7 +1902,7 @@
       <c r="N20" s="1">
         <v>0.5</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20">
         <v>1.5</v>
       </c>
       <c r="P20" s="1">
@@ -1930,7 +1928,7 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
@@ -1946,34 +1944,34 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="20">
-        <v>2</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="B22" s="14">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15">
         <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="14">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0.5</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="13">
         <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22">
         <v>0.5</v>
       </c>
       <c r="O22">
@@ -2002,7 +2000,7 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1">
@@ -2029,7 +2027,7 @@
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23">
         <v>1.5</v>
       </c>
       <c r="P23" s="1">
@@ -2055,20 +2053,20 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="E24" s="21">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="21">
-        <v>2</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G24" s="15">
+        <v>2</v>
+      </c>
+      <c r="H24" s="15">
         <v>2</v>
       </c>
       <c r="I24" t="s">
@@ -2077,7 +2075,7 @@
       <c r="J24" s="1">
         <v>0.5</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24">
         <v>0.5</v>
       </c>
       <c r="L24" s="2">
@@ -2086,22 +2084,22 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
-        <v>1</v>
-      </c>
-      <c r="P24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="R24" s="12">
-        <v>1</v>
-      </c>
-      <c r="S24" s="12">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>0.5</v>
       </c>
       <c r="T24" s="2">
@@ -2115,20 +2113,20 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="E25" s="21">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="21">
-        <v>2</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
         <v>2</v>
       </c>
       <c r="J25" s="1">
@@ -2146,7 +2144,7 @@
       <c r="N25" s="1">
         <v>0.5</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25">
         <v>1.5</v>
       </c>
       <c r="P25" s="1">
@@ -2172,7 +2170,7 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1">
@@ -2199,7 +2197,7 @@
       <c r="N26" s="1">
         <v>0.5</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26">
         <v>1.5</v>
       </c>
       <c r="P26" s="1">
@@ -2225,7 +2223,7 @@
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1">
@@ -2240,7 +2238,7 @@
       <c r="J27" s="1">
         <v>0.5</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27">
         <v>0.5</v>
       </c>
       <c r="L27" s="2">
@@ -2252,7 +2250,7 @@
       <c r="N27" s="1">
         <v>0.5</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27">
         <v>1.5</v>
       </c>
       <c r="P27" s="1">
@@ -2278,22 +2276,22 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="14">
         <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="15">
         <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="15">
         <v>2</v>
       </c>
       <c r="I28" t="s">
@@ -2314,7 +2312,7 @@
       <c r="N28" s="1">
         <v>0.5</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28">
         <v>1.5</v>
       </c>
       <c r="P28" s="1">
@@ -2340,17 +2338,17 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="F29" s="21">
-        <v>2</v>
-      </c>
-      <c r="G29" s="21">
-        <v>2</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
+      <c r="G29" s="15">
+        <v>2</v>
+      </c>
+      <c r="H29" s="15">
         <v>2</v>
       </c>
       <c r="I29" t="s">
@@ -2359,7 +2357,7 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29">
         <v>0.5</v>
       </c>
       <c r="L29" s="2">
@@ -2371,7 +2369,7 @@
       <c r="N29" s="1">
         <v>0.5</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29">
         <v>1.5</v>
       </c>
       <c r="P29" s="1">
@@ -2397,7 +2395,7 @@
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1">
@@ -2409,7 +2407,7 @@
       <c r="J30" s="1">
         <v>0.5</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30">
         <v>0.5</v>
       </c>
       <c r="L30" s="2">
@@ -2421,7 +2419,7 @@
       <c r="N30" s="1">
         <v>0.5</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30">
         <v>1.5</v>
       </c>
       <c r="P30" s="1">
@@ -2447,7 +2445,7 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1"/>
@@ -2463,7 +2461,7 @@
       <c r="J31" s="1">
         <v>0.5</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31" s="2">
@@ -2475,7 +2473,7 @@
       <c r="N31" s="1">
         <v>0.5</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31">
         <v>1.5</v>
       </c>
       <c r="P31" s="1">
@@ -2501,7 +2499,7 @@
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1">
@@ -2516,7 +2514,7 @@
       <c r="J32" s="1">
         <v>0.5</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32">
         <v>0.5</v>
       </c>
       <c r="L32" s="2">
@@ -2528,7 +2526,7 @@
       <c r="N32" s="1">
         <v>0.5</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32">
         <v>1.5</v>
       </c>
       <c r="P32" s="1">
@@ -2554,7 +2552,7 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="1"/>
@@ -2570,29 +2568,29 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1"/>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="15">
         <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="21">
-        <v>2</v>
-      </c>
-      <c r="J34" s="22">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="19">
+      <c r="I34" s="15">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="13">
         <v>2</v>
       </c>
       <c r="M34" s="1">
@@ -2601,7 +2599,7 @@
       <c r="N34" s="1">
         <v>0.5</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34">
         <v>1.5</v>
       </c>
       <c r="P34" s="1">
@@ -2627,7 +2625,7 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -2645,17 +2643,17 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="D36" s="21">
-        <v>2</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="D36" s="15">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15">
         <v>2</v>
       </c>
       <c r="H36" t="s">
@@ -2664,7 +2662,7 @@
       <c r="J36" s="1">
         <v>0.5</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36">
         <v>0.5</v>
       </c>
       <c r="L36" s="2">
@@ -2676,7 +2674,7 @@
       <c r="N36" s="1">
         <v>0.5</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36">
         <v>1.5</v>
       </c>
       <c r="P36" s="1">
@@ -2702,11 +2700,11 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2717,7 +2715,7 @@
       <c r="J37" s="1">
         <v>0.5</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37">
         <v>0.5</v>
       </c>
       <c r="L37" s="2">
@@ -2729,7 +2727,7 @@
       <c r="N37" s="1">
         <v>0.5</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37">
         <v>1.5</v>
       </c>
       <c r="P37" s="1">
@@ -2755,7 +2753,7 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="3"/>
@@ -2775,7 +2773,7 @@
       <c r="J38" s="1">
         <v>0.5</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38">
         <v>0.5</v>
       </c>
       <c r="L38" s="2">
@@ -2787,7 +2785,7 @@
       <c r="N38" s="1">
         <v>0.5</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38">
         <v>1.5</v>
       </c>
       <c r="P38" s="1">
@@ -2815,13 +2813,13 @@
       <c r="AB38" s="5"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B44" s="24"/>
+      <c r="B44" s="17"/>
       <c r="C44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
+      <c r="B45" s="15"/>
       <c r="C45" t="s">
         <v>77</v>
       </c>
@@ -2830,13 +2828,13 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B46" s="25"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
+      <c r="B47" s="19"/>
       <c r="C47" t="s">
         <v>75</v>
       </c>
